--- a/win32com/5_find.xlsx
+++ b/win32com/5_find.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>중랑중</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,10 @@
   </si>
   <si>
     <t>농협목우촌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신곡중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -46,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="m&quot;/&quot;d;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -86,7 +90,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -369,7 +373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -390,6 +396,12 @@
       <c r="F3" s="1">
         <v>45169</v>
       </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>20000</v>
+      </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
@@ -413,6 +425,17 @@
       </c>
       <c r="D10">
         <v>110000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F11" s="1">
+        <v>45184</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>13000</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
